--- a/sunsetChart.xlsx
+++ b/sunsetChart.xlsx
@@ -103,10 +103,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="103"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="3"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -196,8 +196,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="65000"/>
+              <a:schemeClr val="accent2">
                 <a:alpha val="70000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -266,7 +265,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
+              <a:schemeClr val="accent4">
                 <a:alpha val="70000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -335,8 +334,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="65000"/>
+              <a:schemeClr val="accent6">
                 <a:alpha val="70000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -399,11 +397,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="1656725504"/>
-        <c:axId val="1656727136"/>
+        <c:axId val="705693728"/>
+        <c:axId val="705692640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1656725504"/>
+        <c:axId val="705693728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -448,7 +446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1656727136"/>
+        <c:crossAx val="705692640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -456,7 +454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1656727136"/>
+        <c:axId val="705692640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,7 +516,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1656725504"/>
+        <c:crossAx val="705693728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1015,11 +1013,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1656727680"/>
-        <c:axId val="1656728224"/>
+        <c:axId val="705707872"/>
+        <c:axId val="705704608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1656727680"/>
+        <c:axId val="705707872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +1027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1656728224"/>
+        <c:crossAx val="705704608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1037,7 +1035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1656728224"/>
+        <c:axId val="705704608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -1048,7 +1046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1656727680"/>
+        <c:crossAx val="705707872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1232,11 +1230,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1656722240"/>
-        <c:axId val="1656000336"/>
+        <c:axId val="705695360"/>
+        <c:axId val="705694272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1656722240"/>
+        <c:axId val="705695360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1656000336"/>
+        <c:crossAx val="705694272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1253,7 +1251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1656000336"/>
+        <c:axId val="705694272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -1264,7 +1262,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1656722240"/>
+        <c:crossAx val="705695360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1307,8 +1305,39 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -3304,7 +3333,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3462,6 +3491,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EBDFB8FB0CCC34B8FC1CA2384DE17EB" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="bfa247a1630a57ffaee5e2ebe88104e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="af587c6f-4573-49b0-b739-99a678e37a98" xmlns:ns3="59a8e38a-bc47-437e-ace5-79219ff22ca3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32755aebee955bdbdbcae24e53f0a3e9" ns2:_="" ns3:_="">
     <xsd:import namespace="af587c6f-4573-49b0-b739-99a678e37a98"/>
@@ -3658,22 +3702,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6923E1D9-F513-4FF0-A62A-AD0AC5C4A57E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="59a8e38a-bc47-437e-ace5-79219ff22ca3"/>
+    <ds:schemaRef ds:uri="af587c6f-4573-49b0-b739-99a678e37a98"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5914318-EEA3-4CEE-BBA1-DDE082BCE017}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51FB4500-96AC-422C-B0F7-4B6D56F49AD3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3690,29 +3744,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5914318-EEA3-4CEE-BBA1-DDE082BCE017}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6923E1D9-F513-4FF0-A62A-AD0AC5C4A57E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="59a8e38a-bc47-437e-ace5-79219ff22ca3"/>
-    <ds:schemaRef ds:uri="af587c6f-4573-49b0-b739-99a678e37a98"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>